--- a/List.xlsx
+++ b/List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\0 - WORK\CARDANO\Other Projects\For ThisCrazy\BITCOIN\4Fre5hBTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB9C38-152D-46DF-97A7-DF762A3FFF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC62785-4C24-4992-95AD-21DD1F8A4978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16560" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16560" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="1" r:id="rId1"/>
@@ -362,15 +362,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -403,12 +405,13 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -440,13 +443,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G82" sqref="A2:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -479,7 +483,86 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,80 +593,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/List.xlsx
+++ b/List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\0 - WORK\CARDANO\Other Projects\For ThisCrazy\BITCOIN\4Fre5hBTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC62785-4C24-4992-95AD-21DD1F8A4978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FEB267-FCF0-4AA4-9DAD-09070B2BE957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16560" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="672">
   <si>
     <t>Name</t>
   </si>
@@ -43,16 +43,2027 @@
   </si>
   <si>
     <t>d5</t>
+  </si>
+  <si>
+    <t>166_v1_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>427.19968372700066</t>
+  </si>
+  <si>
+    <t>423.29119608370945</t>
+  </si>
+  <si>
+    <t>023_v1_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>334.57003350488026</t>
+  </si>
+  <si>
+    <t>360.9469828780035</t>
+  </si>
+  <si>
+    <t>022_v1_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>360.96789825514816</t>
+  </si>
+  <si>
+    <t>410.5152219566492</t>
+  </si>
+  <si>
+    <t>113_v1_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>330.0791165262805</t>
+  </si>
+  <si>
+    <t>499.4716180954741</t>
+  </si>
+  <si>
+    <t>060_v1_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>440.71629437977754</t>
+  </si>
+  <si>
+    <t>468.8859228145905</t>
+  </si>
+  <si>
+    <t>036_v1_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>461.9156242393559</t>
+  </si>
+  <si>
+    <t>316.7171287918291</t>
+  </si>
+  <si>
+    <t>335.7142928403475</t>
+  </si>
+  <si>
+    <t>065_v1_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>468.38937008894084</t>
+  </si>
+  <si>
+    <t>475.94987659059774</t>
+  </si>
+  <si>
+    <t>348.4906010632586</t>
+  </si>
+  <si>
+    <t>141_v1_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>349.9612304957991</t>
+  </si>
+  <si>
+    <t>354.7887306609959</t>
+  </si>
+  <si>
+    <t>387.4200073790619</t>
+  </si>
+  <si>
+    <t>129_v1_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>359.53467690180787</t>
+  </si>
+  <si>
+    <t>362.0598120207307</t>
+  </si>
+  <si>
+    <t>302.4742002287738</t>
+  </si>
+  <si>
+    <t>361.62245059320156</t>
+  </si>
+  <si>
+    <t>347.695016140411</t>
+  </si>
+  <si>
+    <t>147_v2_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>308.0414344874629</t>
+  </si>
+  <si>
+    <t>354.82349435554113</t>
+  </si>
+  <si>
+    <t>069_v2_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>443.98093515008594</t>
+  </si>
+  <si>
+    <t>336.170716588487</t>
+  </si>
+  <si>
+    <t>156_v2_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>375.4027236429332</t>
+  </si>
+  <si>
+    <t>455.59666540472097</t>
+  </si>
+  <si>
+    <t>088_v2_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>360.703773246972</t>
+  </si>
+  <si>
+    <t>474.2924535376529</t>
+  </si>
+  <si>
+    <t>049_v2_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>337.0571926758176</t>
+  </si>
+  <si>
+    <t>399.1492825228678</t>
+  </si>
+  <si>
+    <t>079_v2_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>484.83189821332235</t>
+  </si>
+  <si>
+    <t>400.0411740698119</t>
+  </si>
+  <si>
+    <t>005_v2_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>460.7825668984467</t>
+  </si>
+  <si>
+    <t>472.77312073093617</t>
+  </si>
+  <si>
+    <t>076_v2_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>466.3654693010413</t>
+  </si>
+  <si>
+    <t>481.45319790058164</t>
+  </si>
+  <si>
+    <t>125_v2_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>474.2640200830144</t>
+  </si>
+  <si>
+    <t>348.4638365794675</t>
+  </si>
+  <si>
+    <t>318.0894976740046</t>
+  </si>
+  <si>
+    <t>041_v2_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>306.909534395683</t>
+  </si>
+  <si>
+    <t>323.57106444458435</t>
+  </si>
+  <si>
+    <t>391.1244975012454</t>
+  </si>
+  <si>
+    <t>155_v2_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>317.2375008343414</t>
+  </si>
+  <si>
+    <t>378.54909670621436</t>
+  </si>
+  <si>
+    <t>305.0819471007464</t>
+  </si>
+  <si>
+    <t>073_v2_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>373.5387599805739</t>
+  </si>
+  <si>
+    <t>342.3356537928502</t>
+  </si>
+  <si>
+    <t>326.02077586012047</t>
+  </si>
+  <si>
+    <t>136_v2_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>368.1815469129337</t>
+  </si>
+  <si>
+    <t>394.59556428555413</t>
+  </si>
+  <si>
+    <t>336.28355579877376</t>
+  </si>
+  <si>
+    <t>037_v2_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>372.2699760006263</t>
+  </si>
+  <si>
+    <t>360.7665473824875</t>
+  </si>
+  <si>
+    <t>304.94173869055965</t>
+  </si>
+  <si>
+    <t>317.45226433094666</t>
+  </si>
+  <si>
+    <t>384.86308028031954</t>
+  </si>
+  <si>
+    <t>042_v2_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>335.3740710136331</t>
+  </si>
+  <si>
+    <t>277.68476622623706</t>
+  </si>
+  <si>
+    <t>398.18894852109105</t>
+  </si>
+  <si>
+    <t>340.1871375788325</t>
+  </si>
+  <si>
+    <t>279.61512956090615</t>
+  </si>
+  <si>
+    <t>098_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>390.83315226568214</t>
+  </si>
+  <si>
+    <t>279.7522972948047</t>
+  </si>
+  <si>
+    <t>068_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>321.6916752789092</t>
+  </si>
+  <si>
+    <t>305.7857083012669</t>
+  </si>
+  <si>
+    <t>007_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>302.73990849521215</t>
+  </si>
+  <si>
+    <t>380.20632360370996</t>
+  </si>
+  <si>
+    <t>026_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>309.4288126964009</t>
+  </si>
+  <si>
+    <t>373.50587045778093</t>
+  </si>
+  <si>
+    <t>077_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>493.161553022583</t>
+  </si>
+  <si>
+    <t>404.24217532849093</t>
+  </si>
+  <si>
+    <t>105_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>310.9217591231329</t>
+  </si>
+  <si>
+    <t>322.8023740613378</t>
+  </si>
+  <si>
+    <t>100_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>399.0833474781618</t>
+  </si>
+  <si>
+    <t>298.43419522506593</t>
+  </si>
+  <si>
+    <t>145_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>305.3679969024657</t>
+  </si>
+  <si>
+    <t>466.2078338293611</t>
+  </si>
+  <si>
+    <t>144_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>316.9890601829213</t>
+  </si>
+  <si>
+    <t>443.13221242959753</t>
+  </si>
+  <si>
+    <t>148_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>322.3338229430312</t>
+  </si>
+  <si>
+    <t>469.13665717922345</t>
+  </si>
+  <si>
+    <t>015_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>334.5771952747446</t>
+  </si>
+  <si>
+    <t>486.96334761913215</t>
+  </si>
+  <si>
+    <t>070_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>335.80323535730304</t>
+  </si>
+  <si>
+    <t>486.6666725796034</t>
+  </si>
+  <si>
+    <t>123_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>438.2236438762855</t>
+  </si>
+  <si>
+    <t>298.53583345529864</t>
+  </si>
+  <si>
+    <t>033_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>413.099708384098</t>
+  </si>
+  <si>
+    <t>435.1354902100089</t>
+  </si>
+  <si>
+    <t>078_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>329.5191703636586</t>
+  </si>
+  <si>
+    <t>443.1711952538157</t>
+  </si>
+  <si>
+    <t>127_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>444.0106786213006</t>
+  </si>
+  <si>
+    <t>430.22362274179306</t>
+  </si>
+  <si>
+    <t>104_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>306.0729871646413</t>
+  </si>
+  <si>
+    <t>329.8290755107486</t>
+  </si>
+  <si>
+    <t>128_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>304.7048829472752</t>
+  </si>
+  <si>
+    <t>405.8876134912487</t>
+  </si>
+  <si>
+    <t>083_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>388.51983427012624</t>
+  </si>
+  <si>
+    <t>442.32485497849655</t>
+  </si>
+  <si>
+    <t>011_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>293.41978902303225</t>
+  </si>
+  <si>
+    <t>342.38488833838045</t>
+  </si>
+  <si>
+    <t>044_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>312.04743310041766</t>
+  </si>
+  <si>
+    <t>336.9363045386217</t>
+  </si>
+  <si>
+    <t>115_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>403.17062491815</t>
+  </si>
+  <si>
+    <t>436.68060779793825</t>
+  </si>
+  <si>
+    <t>116_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>316.52102683417905</t>
+  </si>
+  <si>
+    <t>359.6990808907249</t>
+  </si>
+  <si>
+    <t>154_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>444.22873221872464</t>
+  </si>
+  <si>
+    <t>480.9063739279295</t>
+  </si>
+  <si>
+    <t>171_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>437.7578471791379</t>
+  </si>
+  <si>
+    <t>461.5292496602042</t>
+  </si>
+  <si>
+    <t>131_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>430.8546568531966</t>
+  </si>
+  <si>
+    <t>354.6471420711797</t>
+  </si>
+  <si>
+    <t>099_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>405.7183929615665</t>
+  </si>
+  <si>
+    <t>428.29838652850026</t>
+  </si>
+  <si>
+    <t>102_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>315.72791577114236</t>
+  </si>
+  <si>
+    <t>494.79000754284647</t>
+  </si>
+  <si>
+    <t>082_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>315.43200449732416</t>
+  </si>
+  <si>
+    <t>431.4623591644542</t>
+  </si>
+  <si>
+    <t>137_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>369.66098890373024</t>
+  </si>
+  <si>
+    <t>498.7220110935524</t>
+  </si>
+  <si>
+    <t>021_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>330.01436673190346</t>
+  </si>
+  <si>
+    <t>385.62634585267546</t>
+  </si>
+  <si>
+    <t>057_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>365.98838517443374</t>
+  </si>
+  <si>
+    <t>423.0423515787993</t>
+  </si>
+  <si>
+    <t>058_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>416.4939278901815</t>
+  </si>
+  <si>
+    <t>341.91141535103407</t>
+  </si>
+  <si>
+    <t>066_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>475.00609375118563</t>
+  </si>
+  <si>
+    <t>352.5424048215558</t>
+  </si>
+  <si>
+    <t>126_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>423.4954226843723</t>
+  </si>
+  <si>
+    <t>469.12419892888283</t>
+  </si>
+  <si>
+    <t>067_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>456.5744428337278</t>
+  </si>
+  <si>
+    <t>473.9319270710523</t>
+  </si>
+  <si>
+    <t>012_v3_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>397.6417281498319</t>
+  </si>
+  <si>
+    <t>363.18759729807635</t>
+  </si>
+  <si>
+    <t>106_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>435.11935483958257</t>
+  </si>
+  <si>
+    <t>460.7631294494199</t>
+  </si>
+  <si>
+    <t>386.8645278307823</t>
+  </si>
+  <si>
+    <t>096_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>386.44282133923383</t>
+  </si>
+  <si>
+    <t>494.81827988558416</t>
+  </si>
+  <si>
+    <t>487.4043988398862</t>
+  </si>
+  <si>
+    <t>043_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>365.98772264726637</t>
+  </si>
+  <si>
+    <t>481.43688037226775</t>
+  </si>
+  <si>
+    <t>487.58481784258595</t>
+  </si>
+  <si>
+    <t>085_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>397.64497845615006</t>
+  </si>
+  <si>
+    <t>430.6884363422755</t>
+  </si>
+  <si>
+    <t>398.2036829614864</t>
+  </si>
+  <si>
+    <t>174_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>355.6248724179491</t>
+  </si>
+  <si>
+    <t>472.8045772445936</t>
+  </si>
+  <si>
+    <t>437.73885680950696</t>
+  </si>
+  <si>
+    <t>112_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>424.24111402684593</t>
+  </si>
+  <si>
+    <t>461.82693789686243</t>
+  </si>
+  <si>
+    <t>449.21443517187333</t>
+  </si>
+  <si>
+    <t>138_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>436.61026363102667</t>
+  </si>
+  <si>
+    <t>430.28993013329136</t>
+  </si>
+  <si>
+    <t>423.7234440026359</t>
+  </si>
+  <si>
+    <t>146_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>399.0261939931495</t>
+  </si>
+  <si>
+    <t>417.38913345554295</t>
+  </si>
+  <si>
+    <t>380.5802606460051</t>
+  </si>
+  <si>
+    <t>019_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>441.4139828777222</t>
+  </si>
+  <si>
+    <t>394.7789458376899</t>
+  </si>
+  <si>
+    <t>442.9808169856414</t>
+  </si>
+  <si>
+    <t>063_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>450.283801083762</t>
+  </si>
+  <si>
+    <t>405.2542057632815</t>
+  </si>
+  <si>
+    <t>430.1067752228662</t>
+  </si>
+  <si>
+    <t>164_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>437.312274991541</t>
+  </si>
+  <si>
+    <t>451.3335883633233</t>
+  </si>
+  <si>
+    <t>372.26049265264</t>
+  </si>
+  <si>
+    <t>001_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>379.8475989640377</t>
+  </si>
+  <si>
+    <t>422.7633439274941</t>
+  </si>
+  <si>
+    <t>375.44125377701516</t>
+  </si>
+  <si>
+    <t>016_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>386.2661915333127</t>
+  </si>
+  <si>
+    <t>418.1190042481296</t>
+  </si>
+  <si>
+    <t>430.4573884069721</t>
+  </si>
+  <si>
+    <t>027_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>489.0252051620937</t>
+  </si>
+  <si>
+    <t>420.0576866967332</t>
+  </si>
+  <si>
+    <t>373.79974509900325</t>
+  </si>
+  <si>
+    <t>053_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>499.8528671630356</t>
+  </si>
+  <si>
+    <t>399.0907446454812</t>
+  </si>
+  <si>
+    <t>466.4943689696696</t>
+  </si>
+  <si>
+    <t>025_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>359.0354108431365</t>
+  </si>
+  <si>
+    <t>461.84914530533274</t>
+  </si>
+  <si>
+    <t>372.285416994176</t>
+  </si>
+  <si>
+    <t>051_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>410.49886350031915</t>
+  </si>
+  <si>
+    <t>367.12025103290625</t>
+  </si>
+  <si>
+    <t>418.8658679842245</t>
+  </si>
+  <si>
+    <t>046_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>431.4361071724645</t>
+  </si>
+  <si>
+    <t>354.21086307953914</t>
+  </si>
+  <si>
+    <t>380.98955022622795</t>
+  </si>
+  <si>
+    <t>006_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>485.3616933806308</t>
+  </si>
+  <si>
+    <t>418.4577929180182</t>
+  </si>
+  <si>
+    <t>355.8566937419644</t>
+  </si>
+  <si>
+    <t>074_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>412.3336974711898</t>
+  </si>
+  <si>
+    <t>384.8436383680862</t>
+  </si>
+  <si>
+    <t>380.0751041998701</t>
+  </si>
+  <si>
+    <t>168_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>359.2003196459938</t>
+  </si>
+  <si>
+    <t>419.17982171426377</t>
+  </si>
+  <si>
+    <t>385.39942041557777</t>
+  </si>
+  <si>
+    <t>095_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>481.1202123794711</t>
+  </si>
+  <si>
+    <t>461.84228553697744</t>
+  </si>
+  <si>
+    <t>371.7612578615338</t>
+  </si>
+  <si>
+    <t>052_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>475.4404083703324</t>
+  </si>
+  <si>
+    <t>461.774346023822</t>
+  </si>
+  <si>
+    <t>367.5368622701855</t>
+  </si>
+  <si>
+    <t>086_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>397.9065661628478</t>
+  </si>
+  <si>
+    <t>392.24523815439613</t>
+  </si>
+  <si>
+    <t>354.7142217174876</t>
+  </si>
+  <si>
+    <t>032_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>437.3038707082593</t>
+  </si>
+  <si>
+    <t>393.04748683733686</t>
+  </si>
+  <si>
+    <t>369.1343796184113</t>
+  </si>
+  <si>
+    <t>048_v3_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>374.9163766153482</t>
+  </si>
+  <si>
+    <t>360.22849306900514</t>
+  </si>
+  <si>
+    <t>432.2733415178194</t>
+  </si>
+  <si>
+    <t>134_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>467.03192896837925</t>
+  </si>
+  <si>
+    <t>425.1843955789576</t>
+  </si>
+  <si>
+    <t>353.98137818711416</t>
+  </si>
+  <si>
+    <t>419.40059109580807</t>
+  </si>
+  <si>
+    <t>447.34131165186454</t>
+  </si>
+  <si>
+    <t>117_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>480.7357199558414</t>
+  </si>
+  <si>
+    <t>469.99682594332506</t>
+  </si>
+  <si>
+    <t>406.30406487414575</t>
+  </si>
+  <si>
+    <t>461.8603904208517</t>
+  </si>
+  <si>
+    <t>394.43739320534394</t>
+  </si>
+  <si>
+    <t>084_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>393.48009754640725</t>
+  </si>
+  <si>
+    <t>487.15618948818724</t>
+  </si>
+  <si>
+    <t>438.5674677992247</t>
+  </si>
+  <si>
+    <t>475.40392279701365</t>
+  </si>
+  <si>
+    <t>407.17057283247567</t>
+  </si>
+  <si>
+    <t>133_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>409.9453145355482</t>
+  </si>
+  <si>
+    <t>357.09177559915383</t>
+  </si>
+  <si>
+    <t>482.5274784541359</t>
+  </si>
+  <si>
+    <t>424.4292710164701</t>
+  </si>
+  <si>
+    <t>419.4230940076826</t>
+  </si>
+  <si>
+    <t>101_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>406.34804468584906</t>
+  </si>
+  <si>
+    <t>467.0115249563467</t>
+  </si>
+  <si>
+    <t>374.13658033812857</t>
+  </si>
+  <si>
+    <t>478.5607344435509</t>
+  </si>
+  <si>
+    <t>492.45479981055763</t>
+  </si>
+  <si>
+    <t>124_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>398.5891413760916</t>
+  </si>
+  <si>
+    <t>404.4877569349719</t>
+  </si>
+  <si>
+    <t>497.92122167849504</t>
+  </si>
+  <si>
+    <t>391.1085193983135</t>
+  </si>
+  <si>
+    <t>373.6078012910758</t>
+  </si>
+  <si>
+    <t>089_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>373.79104881886997</t>
+  </si>
+  <si>
+    <t>435.6063984215358</t>
+  </si>
+  <si>
+    <t>468.3351516931241</t>
+  </si>
+  <si>
+    <t>463.6961858349153</t>
+  </si>
+  <si>
+    <t>474.73290155785594</t>
+  </si>
+  <si>
+    <t>002_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>411.7578217558208</t>
+  </si>
+  <si>
+    <t>488.0153447841601</t>
+  </si>
+  <si>
+    <t>474.08933358755183</t>
+  </si>
+  <si>
+    <t>381.4724030994343</t>
+  </si>
+  <si>
+    <t>449.2553278431316</t>
+  </si>
+  <si>
+    <t>121_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>399.61445157928637</t>
+  </si>
+  <si>
+    <t>391.1430937593768</t>
+  </si>
+  <si>
+    <t>413.1009886201982</t>
+  </si>
+  <si>
+    <t>361.59759441002745</t>
+  </si>
+  <si>
+    <t>369.1251266382435</t>
+  </si>
+  <si>
+    <t>173_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>448.60620877216206</t>
+  </si>
+  <si>
+    <t>367.55672930107846</t>
+  </si>
+  <si>
+    <t>450.8188009906083</t>
+  </si>
+  <si>
+    <t>398.19115229211604</t>
+  </si>
+  <si>
+    <t>448.21356086332366</t>
+  </si>
+  <si>
+    <t>045_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>426.0144179513853</t>
+  </si>
+  <si>
+    <t>437.30967569288225</t>
+  </si>
+  <si>
+    <t>410.1972403591741</t>
+  </si>
+  <si>
+    <t>409.99573803842077</t>
+  </si>
+  <si>
+    <t>394.057419670503</t>
+  </si>
+  <si>
+    <t>150_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>397.6276678383218</t>
+  </si>
+  <si>
+    <t>498.4900900633062</t>
+  </si>
+  <si>
+    <t>398.33955133493106</t>
+  </si>
+  <si>
+    <t>431.45910449227284</t>
+  </si>
+  <si>
+    <t>403.92476431884086</t>
+  </si>
+  <si>
+    <t>017_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>387.9936276354422</t>
+  </si>
+  <si>
+    <t>449.6884929512855</t>
+  </si>
+  <si>
+    <t>380.76218179668973</t>
+  </si>
+  <si>
+    <t>385.36330087916906</t>
+  </si>
+  <si>
+    <t>493.5149427874032</t>
+  </si>
+  <si>
+    <t>122_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>450.82850047036686</t>
+  </si>
+  <si>
+    <t>492.19716477173415</t>
+  </si>
+  <si>
+    <t>467.05683874035043</t>
+  </si>
+  <si>
+    <t>372.78125848341244</t>
+  </si>
+  <si>
+    <t>416.25798079029755</t>
+  </si>
+  <si>
+    <t>152_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>488.5099809087105</t>
+  </si>
+  <si>
+    <t>361.2934230192893</t>
+  </si>
+  <si>
+    <t>400.0145972577501</t>
+  </si>
+  <si>
+    <t>355.1831742677905</t>
+  </si>
+  <si>
+    <t>430.0433659824771</t>
+  </si>
+  <si>
+    <t>165_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>360.84098399325353</t>
+  </si>
+  <si>
+    <t>423.7571198670927</t>
+  </si>
+  <si>
+    <t>481.10972287905383</t>
+  </si>
+  <si>
+    <t>412.89416276937146</t>
+  </si>
+  <si>
+    <t>374.4644775225432</t>
+  </si>
+  <si>
+    <t>162_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>486.3202240195161</t>
+  </si>
+  <si>
+    <t>448.90288813265</t>
+  </si>
+  <si>
+    <t>455.81526689391114</t>
+  </si>
+  <si>
+    <t>493.6779909379426</t>
+  </si>
+  <si>
+    <t>469.1632201978171</t>
+  </si>
+  <si>
+    <t>130_v3_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>444.8552848403507</t>
+  </si>
+  <si>
+    <t>387.4839601392321</t>
+  </si>
+  <si>
+    <t>424.4555695964522</t>
+  </si>
+  <si>
+    <t>494.5670566672559</t>
+  </si>
+  <si>
+    <t>388.2927082471823</t>
+  </si>
+  <si>
+    <t>059_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>492.43897425382727</t>
+  </si>
+  <si>
+    <t>375.4207128381046</t>
+  </si>
+  <si>
+    <t>139_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>367.4021867148995</t>
+  </si>
+  <si>
+    <t>379.67810652734187</t>
+  </si>
+  <si>
+    <t>151_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>491.67669256344624</t>
+  </si>
+  <si>
+    <t>462.4589596428326</t>
+  </si>
+  <si>
+    <t>109_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>419.3939643035545</t>
+  </si>
+  <si>
+    <t>418.87081837387313</t>
+  </si>
+  <si>
+    <t>035_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>469.6628008267742</t>
+  </si>
+  <si>
+    <t>447.3543078531744</t>
+  </si>
+  <si>
+    <t>103_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>436.3315195369154</t>
+  </si>
+  <si>
+    <t>425.68627079828315</t>
+  </si>
+  <si>
+    <t>030_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>387.76283730220797</t>
+  </si>
+  <si>
+    <t>435.82408445667863</t>
+  </si>
+  <si>
+    <t>167_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>403.38467154542457</t>
+  </si>
+  <si>
+    <t>493.33201003238537</t>
+  </si>
+  <si>
+    <t>024_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>493.08717257557964</t>
+  </si>
+  <si>
+    <t>357.3442765611984</t>
+  </si>
+  <si>
+    <t>092_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>411.52679597900965</t>
+  </si>
+  <si>
+    <t>388.29833016312</t>
+  </si>
+  <si>
+    <t>075_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>461.7913213703523</t>
+  </si>
+  <si>
+    <t>474.6201752357267</t>
+  </si>
+  <si>
+    <t>010_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>437.1364503562492</t>
+  </si>
+  <si>
+    <t>365.99580746987095</t>
+  </si>
+  <si>
+    <t>160_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>499.3613704746175</t>
+  </si>
+  <si>
+    <t>423.3327366974654</t>
+  </si>
+  <si>
+    <t>034_v4_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>417.4352467945754</t>
+  </si>
+  <si>
+    <t>392.9607835728009</t>
+  </si>
+  <si>
+    <t>170_v4_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>390.59017554612717</t>
+  </si>
+  <si>
+    <t>422.54467953717887</t>
+  </si>
+  <si>
+    <t>356.34222873401905</t>
+  </si>
+  <si>
+    <t>094_v4_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>366.78139210482226</t>
+  </si>
+  <si>
+    <t>494.00544798232653</t>
+  </si>
+  <si>
+    <t>360.72924186670275</t>
+  </si>
+  <si>
+    <t>004_v4_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>387.47654358049743</t>
+  </si>
+  <si>
+    <t>399.12639106648317</t>
+  </si>
+  <si>
+    <t>480.95083060345036</t>
+  </si>
+  <si>
+    <t>097_v4_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>498.4772801606954</t>
+  </si>
+  <si>
+    <t>455.0711682222448</t>
+  </si>
+  <si>
+    <t>430.35343916911046</t>
+  </si>
+  <si>
+    <t>107_v4_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>363.5240231261972</t>
+  </si>
+  <si>
+    <t>461.6481332330923</t>
+  </si>
+  <si>
+    <t>392.82325097411734</t>
+  </si>
+  <si>
+    <t>054_v4_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>460.9504055544741</t>
+  </si>
+  <si>
+    <t>354.83857628322005</t>
+  </si>
+  <si>
+    <t>472.1356193982356</t>
+  </si>
+  <si>
+    <t>031_v4_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>436.2284316822945</t>
+  </si>
+  <si>
+    <t>418.271364028583</t>
+  </si>
+  <si>
+    <t>449.2728711905228</t>
+  </si>
+  <si>
+    <t>119_v4_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>430.23692679025</t>
+  </si>
+  <si>
+    <t>415.93526710593164</t>
+  </si>
+  <si>
+    <t>441.889355621413</t>
+  </si>
+  <si>
+    <t>118_v4_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>419.93789894008614</t>
+  </si>
+  <si>
+    <t>429.7670631264993</t>
+  </si>
+  <si>
+    <t>417.6806468441794</t>
+  </si>
+  <si>
+    <t>429.6730172235683</t>
+  </si>
+  <si>
+    <t>388.01272452540934</t>
+  </si>
+  <si>
+    <t>009_v4_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>405.21440334534606</t>
+  </si>
+  <si>
+    <t>413.12705243065784</t>
+  </si>
+  <si>
+    <t>493.5790452927625</t>
+  </si>
+  <si>
+    <t>449.19997158889197</t>
+  </si>
+  <si>
+    <t>474.50952120302367</t>
+  </si>
+  <si>
+    <t>149_v4_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>456.1715557669774</t>
+  </si>
+  <si>
+    <t>498.72431518519784</t>
+  </si>
+  <si>
+    <t>467.737828192309</t>
+  </si>
+  <si>
+    <t>420.08484635471217</t>
+  </si>
+  <si>
+    <t>485.59802996373884</t>
+  </si>
+  <si>
+    <t>159_v4_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>398.9029236472833</t>
+  </si>
+  <si>
+    <t>495.141489202682</t>
+  </si>
+  <si>
+    <t>375.4184966033989</t>
+  </si>
+  <si>
+    <t>381.68360837357346</t>
+  </si>
+  <si>
+    <t>481.02076088418727</t>
+  </si>
+  <si>
+    <t>169_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>380.11717880182715</t>
+  </si>
+  <si>
+    <t>423.8701612297598</t>
+  </si>
+  <si>
+    <t>028_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>499.57320053065905</t>
+  </si>
+  <si>
+    <t>354.47319965190286</t>
+  </si>
+  <si>
+    <t>111_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>372.8069618624392</t>
+  </si>
+  <si>
+    <t>356.9026291947376</t>
+  </si>
+  <si>
+    <t>091_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>474.737973639805</t>
+  </si>
+  <si>
+    <t>466.19491075171646</t>
+  </si>
+  <si>
+    <t>056_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>354.6061044903547</t>
+  </si>
+  <si>
+    <t>468.7205260923681</t>
+  </si>
+  <si>
+    <t>110_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>425.9872278648768</t>
+  </si>
+  <si>
+    <t>387.1884418211812</t>
+  </si>
+  <si>
+    <t>132_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>385.3758482915591</t>
+  </si>
+  <si>
+    <t>443.01767468844173</t>
+  </si>
+  <si>
+    <t>153_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>443.5811283107238</t>
+  </si>
+  <si>
+    <t>355.44348478238385</t>
+  </si>
+  <si>
+    <t>135_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>380.6514948774901</t>
+  </si>
+  <si>
+    <t>384.550910423005</t>
+  </si>
+  <si>
+    <t>008_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>354.7941640167149</t>
+  </si>
+  <si>
+    <t>366.4965729042157</t>
+  </si>
+  <si>
+    <t>064_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>398.3720854787659</t>
+  </si>
+  <si>
+    <t>369.4627611484367</t>
+  </si>
+  <si>
+    <t>071_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>360.9909443545717</t>
+  </si>
+  <si>
+    <t>361.3362772305312</t>
+  </si>
+  <si>
+    <t>055_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>356.89594360901185</t>
+  </si>
+  <si>
+    <t>374.4881290175828</t>
+  </si>
+  <si>
+    <t>140_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>354.6962225737815</t>
+  </si>
+  <si>
+    <t>361.29871100636956</t>
+  </si>
+  <si>
+    <t>014_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>354.89724306081297</t>
+  </si>
+  <si>
+    <t>374.0216102646855</t>
+  </si>
+  <si>
+    <t>072_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>365.33718722546786</t>
+  </si>
+  <si>
+    <t>386.1461429102302</t>
+  </si>
+  <si>
+    <t>050_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>387.039148875542</t>
+  </si>
+  <si>
+    <t>356.8740768783547</t>
+  </si>
+  <si>
+    <t>114_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>361.9111877942886</t>
+  </si>
+  <si>
+    <t>393.74959250818966</t>
+  </si>
+  <si>
+    <t>172_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>350.28489862939807</t>
+  </si>
+  <si>
+    <t>367.3822186884821</t>
+  </si>
+  <si>
+    <t>175_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>398.6347918686916</t>
+  </si>
+  <si>
+    <t>385.9169249824718</t>
+  </si>
+  <si>
+    <t>013_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>380.8761052791958</t>
+  </si>
+  <si>
+    <t>380.9254010934913</t>
+  </si>
+  <si>
+    <t>087_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>356.8938221835677</t>
+  </si>
+  <si>
+    <t>417.3929219980172</t>
+  </si>
+  <si>
+    <t>143_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>474.9069404071131</t>
+  </si>
+  <si>
+    <t>441.4128288381776</t>
+  </si>
+  <si>
+    <t>090_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>368.60838338689894</t>
+  </si>
+  <si>
+    <t>462.44864232684876</t>
+  </si>
+  <si>
+    <t>029_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>486.7025769559825</t>
+  </si>
+  <si>
+    <t>485.9006071216563</t>
+  </si>
+  <si>
+    <t>163_v5_2d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>405.5611097178594</t>
+  </si>
+  <si>
+    <t>479.30352511403817</t>
+  </si>
+  <si>
+    <t>040_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>368.64137566249747</t>
+  </si>
+  <si>
+    <t>374.58160080178965</t>
+  </si>
+  <si>
+    <t>391.6294968338316</t>
+  </si>
+  <si>
+    <t>081_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>367.59282349787185</t>
+  </si>
+  <si>
+    <t>473.60059735757426</t>
+  </si>
+  <si>
+    <t>415.9353606600982</t>
+  </si>
+  <si>
+    <t>093_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>333.06771210690954</t>
+  </si>
+  <si>
+    <t>383.9170357101525</t>
+  </si>
+  <si>
+    <t>394.6986657870302</t>
+  </si>
+  <si>
+    <t>080_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>454.2603767165638</t>
+  </si>
+  <si>
+    <t>474.07873248434214</t>
+  </si>
+  <si>
+    <t>411.2885468031301</t>
+  </si>
+  <si>
+    <t>039_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>369.74171067105976</t>
+  </si>
+  <si>
+    <t>481.70785952859137</t>
+  </si>
+  <si>
+    <t>467.2483646998115</t>
+  </si>
+  <si>
+    <t>047_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>393.25890973098035</t>
+  </si>
+  <si>
+    <t>323.3794743747634</t>
+  </si>
+  <si>
+    <t>478.41440463579266</t>
+  </si>
+  <si>
+    <t>142_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>424.50445409804763</t>
+  </si>
+  <si>
+    <t>384.67518303625934</t>
+  </si>
+  <si>
+    <t>335.9081529844718</t>
+  </si>
+  <si>
+    <t>018_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>425.8699642209209</t>
+  </si>
+  <si>
+    <t>331.21748362219324</t>
+  </si>
+  <si>
+    <t>338.5959267436366</t>
+  </si>
+  <si>
+    <t>003_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>387.96978393994743</t>
+  </si>
+  <si>
+    <t>474.739694765241</t>
+  </si>
+  <si>
+    <t>499.4197860352184</t>
+  </si>
+  <si>
+    <t>161_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>380.65892313638756</t>
+  </si>
+  <si>
+    <t>481.99414843501313</t>
+  </si>
+  <si>
+    <t>462.01097331024994</t>
+  </si>
+  <si>
+    <t>061_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>495.1232617492926</t>
+  </si>
+  <si>
+    <t>474.10193866722983</t>
+  </si>
+  <si>
+    <t>398.53903998722694</t>
+  </si>
+  <si>
+    <t>157_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>330.49862403312494</t>
+  </si>
+  <si>
+    <t>417.2150936378962</t>
+  </si>
+  <si>
+    <t>329.5389868930633</t>
+  </si>
+  <si>
+    <t>108_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>367.8409524244004</t>
+  </si>
+  <si>
+    <t>344.5318027949088</t>
+  </si>
+  <si>
+    <t>346.35141458920145</t>
+  </si>
+  <si>
+    <t>020_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>444.7150636539472</t>
+  </si>
+  <si>
+    <t>394.2536382462258</t>
+  </si>
+  <si>
+    <t>303.1796337788552</t>
+  </si>
+  <si>
+    <t>038_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>367.2972443799506</t>
+  </si>
+  <si>
+    <t>440.89048466095335</t>
+  </si>
+  <si>
+    <t>342.82453970602603</t>
+  </si>
+  <si>
+    <t>062_v5_3d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>407.155292974988</t>
+  </si>
+  <si>
+    <t>470.2037142904471</t>
+  </si>
+  <si>
+    <t>329.08459937616027</t>
+  </si>
+  <si>
+    <t>158_v5_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>481.0975015575492</t>
+  </si>
+  <si>
+    <t>409.44126475011353</t>
+  </si>
+  <si>
+    <t>313.1096645721143</t>
+  </si>
+  <si>
+    <t>366.9405528765021</t>
+  </si>
+  <si>
+    <t>455.30375303114727</t>
+  </si>
+  <si>
+    <t>120_v5_5d_4Fre5hBTC</t>
+  </si>
+  <si>
+    <t>373.7221743152493</t>
+  </si>
+  <si>
+    <t>348.5701233207277</t>
+  </si>
+  <si>
+    <t>311.4645528408927</t>
+  </si>
+  <si>
+    <t>411.99433884229165</t>
+  </si>
+  <si>
+    <t>392.08544556966837</t>
+  </si>
+  <si>
+    <t>pube</t>
+  </si>
+  <si>
+    <t>check it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,8 +2089,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,6 +2408,123 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -402,10 +2532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="A2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,6 +2564,204 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -441,10 +2769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G82" sqref="A2:G82"/>
+    <sheetView topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F82" sqref="A2:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,6 +2801,1137 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" t="s">
+        <v>264</v>
+      </c>
+      <c r="D53" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>278</v>
+      </c>
+      <c r="B57" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>290</v>
+      </c>
+      <c r="B60" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" t="s">
+        <v>299</v>
+      </c>
+      <c r="C62" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C64" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>310</v>
+      </c>
+      <c r="B65" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" t="s">
+        <v>312</v>
+      </c>
+      <c r="D65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E65" t="s">
+        <v>314</v>
+      </c>
+      <c r="F65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>316</v>
+      </c>
+      <c r="B66" t="s">
+        <v>317</v>
+      </c>
+      <c r="C66" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" t="s">
+        <v>319</v>
+      </c>
+      <c r="E66" t="s">
+        <v>320</v>
+      </c>
+      <c r="F66" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" t="s">
+        <v>325</v>
+      </c>
+      <c r="E67" t="s">
+        <v>326</v>
+      </c>
+      <c r="F67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>328</v>
+      </c>
+      <c r="B68" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" t="s">
+        <v>330</v>
+      </c>
+      <c r="D68" t="s">
+        <v>331</v>
+      </c>
+      <c r="E68" t="s">
+        <v>332</v>
+      </c>
+      <c r="F68" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>334</v>
+      </c>
+      <c r="B69" t="s">
+        <v>335</v>
+      </c>
+      <c r="C69" t="s">
+        <v>336</v>
+      </c>
+      <c r="D69" t="s">
+        <v>337</v>
+      </c>
+      <c r="E69" t="s">
+        <v>338</v>
+      </c>
+      <c r="F69" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>340</v>
+      </c>
+      <c r="B70" t="s">
+        <v>341</v>
+      </c>
+      <c r="C70" t="s">
+        <v>342</v>
+      </c>
+      <c r="D70" t="s">
+        <v>343</v>
+      </c>
+      <c r="E70" t="s">
+        <v>344</v>
+      </c>
+      <c r="F70" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" t="s">
+        <v>347</v>
+      </c>
+      <c r="C71" t="s">
+        <v>348</v>
+      </c>
+      <c r="D71" t="s">
+        <v>349</v>
+      </c>
+      <c r="E71" t="s">
+        <v>350</v>
+      </c>
+      <c r="F71" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" t="s">
+        <v>353</v>
+      </c>
+      <c r="C72" t="s">
+        <v>354</v>
+      </c>
+      <c r="D72" t="s">
+        <v>355</v>
+      </c>
+      <c r="E72" t="s">
+        <v>356</v>
+      </c>
+      <c r="F72" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>358</v>
+      </c>
+      <c r="B73" t="s">
+        <v>359</v>
+      </c>
+      <c r="C73" t="s">
+        <v>360</v>
+      </c>
+      <c r="D73" t="s">
+        <v>361</v>
+      </c>
+      <c r="E73" t="s">
+        <v>362</v>
+      </c>
+      <c r="F73" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>364</v>
+      </c>
+      <c r="B74" t="s">
+        <v>365</v>
+      </c>
+      <c r="C74" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" t="s">
+        <v>368</v>
+      </c>
+      <c r="F74" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" t="s">
+        <v>372</v>
+      </c>
+      <c r="D75" t="s">
+        <v>373</v>
+      </c>
+      <c r="E75" t="s">
+        <v>374</v>
+      </c>
+      <c r="F75" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" t="s">
+        <v>377</v>
+      </c>
+      <c r="C76" t="s">
+        <v>378</v>
+      </c>
+      <c r="D76" t="s">
+        <v>379</v>
+      </c>
+      <c r="E76" t="s">
+        <v>380</v>
+      </c>
+      <c r="F76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" t="s">
+        <v>383</v>
+      </c>
+      <c r="C77" t="s">
+        <v>384</v>
+      </c>
+      <c r="D77" t="s">
+        <v>385</v>
+      </c>
+      <c r="E77" t="s">
+        <v>386</v>
+      </c>
+      <c r="F77" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" t="s">
+        <v>389</v>
+      </c>
+      <c r="C78" t="s">
+        <v>390</v>
+      </c>
+      <c r="D78" t="s">
+        <v>391</v>
+      </c>
+      <c r="E78" t="s">
+        <v>392</v>
+      </c>
+      <c r="F78" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>394</v>
+      </c>
+      <c r="B79" t="s">
+        <v>395</v>
+      </c>
+      <c r="C79" t="s">
+        <v>396</v>
+      </c>
+      <c r="D79" t="s">
+        <v>397</v>
+      </c>
+      <c r="E79" t="s">
+        <v>398</v>
+      </c>
+      <c r="F79" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>400</v>
+      </c>
+      <c r="B80" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" t="s">
+        <v>402</v>
+      </c>
+      <c r="D80" t="s">
+        <v>403</v>
+      </c>
+      <c r="E80" t="s">
+        <v>404</v>
+      </c>
+      <c r="F80" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>406</v>
+      </c>
+      <c r="B81" t="s">
+        <v>407</v>
+      </c>
+      <c r="C81" t="s">
+        <v>408</v>
+      </c>
+      <c r="D81" t="s">
+        <v>409</v>
+      </c>
+      <c r="E81" t="s">
+        <v>410</v>
+      </c>
+      <c r="F81" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>412</v>
+      </c>
+      <c r="B82" t="s">
+        <v>413</v>
+      </c>
+      <c r="C82" t="s">
+        <v>414</v>
+      </c>
+      <c r="D82" t="s">
+        <v>415</v>
+      </c>
+      <c r="E82" t="s">
+        <v>416</v>
+      </c>
+      <c r="F82" t="s">
+        <v>417</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -480,10 +3939,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F27" sqref="A2:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,6 +3971,352 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>451</v>
+      </c>
+      <c r="B13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" t="s">
+        <v>462</v>
+      </c>
+      <c r="D16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B17" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B18" t="s">
+        <v>469</v>
+      </c>
+      <c r="C18" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" t="s">
+        <v>474</v>
+      </c>
+      <c r="D19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C20" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" t="s">
+        <v>481</v>
+      </c>
+      <c r="C21" t="s">
+        <v>482</v>
+      </c>
+      <c r="D21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>484</v>
+      </c>
+      <c r="B22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" t="s">
+        <v>486</v>
+      </c>
+      <c r="D22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>488</v>
+      </c>
+      <c r="B23" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" t="s">
+        <v>490</v>
+      </c>
+      <c r="D23" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>492</v>
+      </c>
+      <c r="B24" t="s">
+        <v>493</v>
+      </c>
+      <c r="C24" t="s">
+        <v>494</v>
+      </c>
+      <c r="D24" t="s">
+        <v>495</v>
+      </c>
+      <c r="E24" t="s">
+        <v>496</v>
+      </c>
+      <c r="F24" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>498</v>
+      </c>
+      <c r="B25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25" t="s">
+        <v>500</v>
+      </c>
+      <c r="D25" t="s">
+        <v>501</v>
+      </c>
+      <c r="E25" t="s">
+        <v>502</v>
+      </c>
+      <c r="F25" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>504</v>
+      </c>
+      <c r="B26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C26" t="s">
+        <v>506</v>
+      </c>
+      <c r="D26" t="s">
+        <v>507</v>
+      </c>
+      <c r="E26" t="s">
+        <v>508</v>
+      </c>
+      <c r="F26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>510</v>
+      </c>
+      <c r="B27" t="s">
+        <v>511</v>
+      </c>
+      <c r="C27" t="s">
+        <v>512</v>
+      </c>
+      <c r="D27" t="s">
+        <v>513</v>
+      </c>
+      <c r="E27" t="s">
+        <v>514</v>
+      </c>
+      <c r="F27" t="s">
+        <v>515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -519,17 +4324,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -550,6 +4355,556 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>549</v>
+      </c>
+      <c r="B13" t="s">
+        <v>550</v>
+      </c>
+      <c r="C13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B16" t="s">
+        <v>559</v>
+      </c>
+      <c r="C16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>561</v>
+      </c>
+      <c r="B17" t="s">
+        <v>562</v>
+      </c>
+      <c r="C17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>564</v>
+      </c>
+      <c r="B18" t="s">
+        <v>565</v>
+      </c>
+      <c r="C18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>567</v>
+      </c>
+      <c r="B19" t="s">
+        <v>568</v>
+      </c>
+      <c r="C19" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>570</v>
+      </c>
+      <c r="B20" t="s">
+        <v>571</v>
+      </c>
+      <c r="C20" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>573</v>
+      </c>
+      <c r="B21" t="s">
+        <v>574</v>
+      </c>
+      <c r="C21" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>576</v>
+      </c>
+      <c r="B22" t="s">
+        <v>577</v>
+      </c>
+      <c r="C22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>579</v>
+      </c>
+      <c r="B23" t="s">
+        <v>580</v>
+      </c>
+      <c r="C23" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>582</v>
+      </c>
+      <c r="B24" t="s">
+        <v>583</v>
+      </c>
+      <c r="C24" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>585</v>
+      </c>
+      <c r="B25" t="s">
+        <v>586</v>
+      </c>
+      <c r="C25" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>588</v>
+      </c>
+      <c r="B26" t="s">
+        <v>589</v>
+      </c>
+      <c r="C26" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>591</v>
+      </c>
+      <c r="B27" t="s">
+        <v>592</v>
+      </c>
+      <c r="C27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>594</v>
+      </c>
+      <c r="B28" t="s">
+        <v>595</v>
+      </c>
+      <c r="C28" t="s">
+        <v>596</v>
+      </c>
+      <c r="D28" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>598</v>
+      </c>
+      <c r="B29" t="s">
+        <v>599</v>
+      </c>
+      <c r="C29" t="s">
+        <v>600</v>
+      </c>
+      <c r="D29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>602</v>
+      </c>
+      <c r="B30" t="s">
+        <v>603</v>
+      </c>
+      <c r="C30" t="s">
+        <v>604</v>
+      </c>
+      <c r="D30" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>606</v>
+      </c>
+      <c r="B31" t="s">
+        <v>607</v>
+      </c>
+      <c r="C31" t="s">
+        <v>608</v>
+      </c>
+      <c r="D31" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>610</v>
+      </c>
+      <c r="B32" t="s">
+        <v>611</v>
+      </c>
+      <c r="C32" t="s">
+        <v>612</v>
+      </c>
+      <c r="D32" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>614</v>
+      </c>
+      <c r="B33" t="s">
+        <v>615</v>
+      </c>
+      <c r="C33" t="s">
+        <v>616</v>
+      </c>
+      <c r="D33" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>618</v>
+      </c>
+      <c r="B34" t="s">
+        <v>619</v>
+      </c>
+      <c r="C34" t="s">
+        <v>620</v>
+      </c>
+      <c r="D34" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>622</v>
+      </c>
+      <c r="B35" t="s">
+        <v>623</v>
+      </c>
+      <c r="C35" t="s">
+        <v>624</v>
+      </c>
+      <c r="D35" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>626</v>
+      </c>
+      <c r="B36" t="s">
+        <v>627</v>
+      </c>
+      <c r="C36" t="s">
+        <v>628</v>
+      </c>
+      <c r="D36" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>630</v>
+      </c>
+      <c r="B37" t="s">
+        <v>631</v>
+      </c>
+      <c r="C37" t="s">
+        <v>632</v>
+      </c>
+      <c r="D37" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>634</v>
+      </c>
+      <c r="B38" t="s">
+        <v>635</v>
+      </c>
+      <c r="C38" t="s">
+        <v>636</v>
+      </c>
+      <c r="D38" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>638</v>
+      </c>
+      <c r="B39" t="s">
+        <v>639</v>
+      </c>
+      <c r="C39" t="s">
+        <v>640</v>
+      </c>
+      <c r="D39" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>642</v>
+      </c>
+      <c r="B40" t="s">
+        <v>643</v>
+      </c>
+      <c r="C40" t="s">
+        <v>644</v>
+      </c>
+      <c r="D40" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>646</v>
+      </c>
+      <c r="B41" t="s">
+        <v>647</v>
+      </c>
+      <c r="C41" t="s">
+        <v>648</v>
+      </c>
+      <c r="D41" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>650</v>
+      </c>
+      <c r="B42" t="s">
+        <v>651</v>
+      </c>
+      <c r="C42" t="s">
+        <v>652</v>
+      </c>
+      <c r="D42" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>654</v>
+      </c>
+      <c r="B43" t="s">
+        <v>655</v>
+      </c>
+      <c r="C43" t="s">
+        <v>656</v>
+      </c>
+      <c r="D43" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>658</v>
+      </c>
+      <c r="B44" t="s">
+        <v>659</v>
+      </c>
+      <c r="C44" t="s">
+        <v>660</v>
+      </c>
+      <c r="D44" t="s">
+        <v>661</v>
+      </c>
+      <c r="E44" t="s">
+        <v>662</v>
+      </c>
+      <c r="F44" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>664</v>
+      </c>
+      <c r="B45" t="s">
+        <v>665</v>
+      </c>
+      <c r="C45" t="s">
+        <v>666</v>
+      </c>
+      <c r="D45" t="s">
+        <v>667</v>
+      </c>
+      <c r="E45" t="s">
+        <v>668</v>
+      </c>
+      <c r="F45" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -559,38 +4914,2398 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9" t="s">
+        <v>544</v>
+      </c>
+      <c r="D9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E10" t="s">
+        <v>501</v>
+      </c>
+      <c r="F10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>576</v>
+      </c>
+      <c r="C14" t="s">
+        <v>577</v>
+      </c>
+      <c r="D14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C15" t="s">
+        <v>559</v>
+      </c>
+      <c r="D15" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" t="s">
+        <v>386</v>
+      </c>
+      <c r="G18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B19" t="s">
+        <v>622</v>
+      </c>
+      <c r="C19" t="s">
+        <v>623</v>
+      </c>
+      <c r="D19" t="s">
+        <v>624</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>646</v>
+      </c>
+      <c r="C21" t="s">
+        <v>647</v>
+      </c>
+      <c r="D21" t="s">
+        <v>648</v>
+      </c>
+      <c r="E21" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" t="s">
+        <v>443</v>
+      </c>
+      <c r="D25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>519</v>
+      </c>
+      <c r="C29" t="s">
+        <v>520</v>
+      </c>
+      <c r="D29" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C30" t="s">
+        <v>589</v>
+      </c>
+      <c r="D30" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>436</v>
+      </c>
+      <c r="C31" t="s">
+        <v>437</v>
+      </c>
+      <c r="D31" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>484</v>
+      </c>
+      <c r="C32" t="s">
+        <v>485</v>
+      </c>
+      <c r="D32" t="s">
+        <v>486</v>
+      </c>
+      <c r="E32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" t="s">
+        <v>304</v>
+      </c>
+      <c r="E33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C35" t="s">
+        <v>458</v>
+      </c>
+      <c r="D35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>430</v>
+      </c>
+      <c r="C36" t="s">
+        <v>431</v>
+      </c>
+      <c r="D36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>650</v>
+      </c>
+      <c r="C39" t="s">
+        <v>651</v>
+      </c>
+      <c r="D39" t="s">
+        <v>652</v>
+      </c>
+      <c r="E39" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>610</v>
+      </c>
+      <c r="C40" t="s">
+        <v>611</v>
+      </c>
+      <c r="D40" t="s">
+        <v>612</v>
+      </c>
+      <c r="E40" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>594</v>
+      </c>
+      <c r="C41" t="s">
+        <v>595</v>
+      </c>
+      <c r="D41" t="s">
+        <v>596</v>
+      </c>
+      <c r="E41" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>370</v>
+      </c>
+      <c r="C46" t="s">
+        <v>371</v>
+      </c>
+      <c r="D46" t="s">
+        <v>372</v>
+      </c>
+      <c r="E46" t="s">
+        <v>373</v>
+      </c>
+      <c r="F46" t="s">
+        <v>374</v>
+      </c>
+      <c r="G46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>614</v>
+      </c>
+      <c r="C48" t="s">
+        <v>615</v>
+      </c>
+      <c r="D48" t="s">
+        <v>616</v>
+      </c>
+      <c r="E48" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C49" t="s">
+        <v>307</v>
+      </c>
+      <c r="D49" t="s">
+        <v>308</v>
+      </c>
+      <c r="E49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>564</v>
+      </c>
+      <c r="C51" t="s">
+        <v>565</v>
+      </c>
+      <c r="D51" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C53" t="s">
+        <v>295</v>
+      </c>
+      <c r="D53" t="s">
+        <v>296</v>
+      </c>
+      <c r="E53" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" t="s">
+        <v>263</v>
+      </c>
+      <c r="D54" t="s">
+        <v>264</v>
+      </c>
+      <c r="E54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>480</v>
+      </c>
+      <c r="C55" t="s">
+        <v>481</v>
+      </c>
+      <c r="D55" t="s">
+        <v>482</v>
+      </c>
+      <c r="E55" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>552</v>
+      </c>
+      <c r="C56" t="s">
+        <v>553</v>
+      </c>
+      <c r="D56" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>528</v>
+      </c>
+      <c r="C57" t="s">
+        <v>529</v>
+      </c>
+      <c r="D57" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>418</v>
+      </c>
+      <c r="C60" t="s">
+        <v>419</v>
+      </c>
+      <c r="D60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>634</v>
+      </c>
+      <c r="C62" t="s">
+        <v>635</v>
+      </c>
+      <c r="D62" t="s">
+        <v>636</v>
+      </c>
+      <c r="E62" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>654</v>
+      </c>
+      <c r="C63" t="s">
+        <v>655</v>
+      </c>
+      <c r="D63" t="s">
+        <v>656</v>
+      </c>
+      <c r="E63" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>546</v>
+      </c>
+      <c r="C65" t="s">
+        <v>547</v>
+      </c>
+      <c r="D65" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>549</v>
+      </c>
+      <c r="C72" t="s">
+        <v>550</v>
+      </c>
+      <c r="D72" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>561</v>
+      </c>
+      <c r="C73" t="s">
+        <v>562</v>
+      </c>
+      <c r="D73" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" t="s">
+        <v>283</v>
+      </c>
+      <c r="D75" t="s">
+        <v>284</v>
+      </c>
+      <c r="E75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>448</v>
+      </c>
+      <c r="C76" t="s">
+        <v>449</v>
+      </c>
+      <c r="D76" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>606</v>
+      </c>
+      <c r="C81" t="s">
+        <v>607</v>
+      </c>
+      <c r="D81" t="s">
+        <v>608</v>
+      </c>
+      <c r="E81" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>598</v>
+      </c>
+      <c r="C82" t="s">
+        <v>599</v>
+      </c>
+      <c r="D82" t="s">
+        <v>600</v>
+      </c>
+      <c r="E82" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>322</v>
+      </c>
+      <c r="C85" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" t="s">
+        <v>324</v>
+      </c>
+      <c r="E85" t="s">
+        <v>325</v>
+      </c>
+      <c r="F85" t="s">
+        <v>326</v>
+      </c>
+      <c r="G85" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" t="s">
+        <v>220</v>
+      </c>
+      <c r="E86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>298</v>
+      </c>
+      <c r="C87" t="s">
+        <v>299</v>
+      </c>
+      <c r="D87" t="s">
+        <v>300</v>
+      </c>
+      <c r="E87" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>579</v>
+      </c>
+      <c r="C88" t="s">
+        <v>580</v>
+      </c>
+      <c r="D88" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>346</v>
+      </c>
+      <c r="C90" t="s">
+        <v>347</v>
+      </c>
+      <c r="D90" t="s">
+        <v>348</v>
+      </c>
+      <c r="E90" t="s">
+        <v>349</v>
+      </c>
+      <c r="F90" t="s">
+        <v>350</v>
+      </c>
+      <c r="G90" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>585</v>
+      </c>
+      <c r="C91" t="s">
+        <v>586</v>
+      </c>
+      <c r="D91" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>525</v>
+      </c>
+      <c r="C92" t="s">
+        <v>526</v>
+      </c>
+      <c r="D92" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>445</v>
+      </c>
+      <c r="C93" t="s">
+        <v>446</v>
+      </c>
+      <c r="D93" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B94" t="s">
+        <v>602</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D94" t="s">
+        <v>604</v>
+      </c>
+      <c r="E94" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>464</v>
+      </c>
+      <c r="C95" t="s">
+        <v>465</v>
+      </c>
+      <c r="D95" t="s">
+        <v>466</v>
+      </c>
+      <c r="E95" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>290</v>
+      </c>
+      <c r="C96" t="s">
+        <v>291</v>
+      </c>
+      <c r="D96" t="s">
+        <v>292</v>
+      </c>
+      <c r="E96" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>472</v>
+      </c>
+      <c r="C98" t="s">
+        <v>473</v>
+      </c>
+      <c r="D98" t="s">
+        <v>474</v>
+      </c>
+      <c r="E98" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" t="s">
+        <v>174</v>
+      </c>
+      <c r="D100" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>334</v>
+      </c>
+      <c r="C102" t="s">
+        <v>335</v>
+      </c>
+      <c r="D102" t="s">
+        <v>336</v>
+      </c>
+      <c r="E102" t="s">
+        <v>337</v>
+      </c>
+      <c r="F102" t="s">
+        <v>338</v>
+      </c>
+      <c r="G102" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" t="s">
+        <v>177</v>
+      </c>
+      <c r="D103" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>433</v>
+      </c>
+      <c r="C104" t="s">
+        <v>434</v>
+      </c>
+      <c r="D104" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" t="s">
+        <v>207</v>
+      </c>
+      <c r="D107" t="s">
+        <v>208</v>
+      </c>
+      <c r="E107" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>476</v>
+      </c>
+      <c r="C108" t="s">
+        <v>477</v>
+      </c>
+      <c r="D108" t="s">
+        <v>478</v>
+      </c>
+      <c r="E108" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>642</v>
+      </c>
+      <c r="C109" t="s">
+        <v>643</v>
+      </c>
+      <c r="D109" t="s">
+        <v>644</v>
+      </c>
+      <c r="E109" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>427</v>
+      </c>
+      <c r="C110" t="s">
+        <v>428</v>
+      </c>
+      <c r="D110" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>531</v>
+      </c>
+      <c r="C111" t="s">
+        <v>532</v>
+      </c>
+      <c r="D111" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>522</v>
+      </c>
+      <c r="C112" t="s">
+        <v>523</v>
+      </c>
+      <c r="D112" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" t="s">
+        <v>227</v>
+      </c>
+      <c r="D113" t="s">
+        <v>228</v>
+      </c>
+      <c r="E113" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>567</v>
+      </c>
+      <c r="C115" t="s">
+        <v>568</v>
+      </c>
+      <c r="D115" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116" t="s">
+        <v>159</v>
+      </c>
+      <c r="D116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>316</v>
+      </c>
+      <c r="C118" t="s">
+        <v>317</v>
+      </c>
+      <c r="D118" t="s">
+        <v>318</v>
+      </c>
+      <c r="E118" t="s">
+        <v>319</v>
+      </c>
+      <c r="F118" t="s">
+        <v>320</v>
+      </c>
+      <c r="G118" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>492</v>
+      </c>
+      <c r="C119" t="s">
+        <v>493</v>
+      </c>
+      <c r="D119" t="s">
+        <v>494</v>
+      </c>
+      <c r="E119" t="s">
+        <v>495</v>
+      </c>
+      <c r="F119" t="s">
+        <v>496</v>
+      </c>
+      <c r="G119" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>488</v>
+      </c>
+      <c r="C120" t="s">
+        <v>489</v>
+      </c>
+      <c r="D120" t="s">
+        <v>490</v>
+      </c>
+      <c r="E120" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>664</v>
+      </c>
+      <c r="C121" t="s">
+        <v>665</v>
+      </c>
+      <c r="D121" t="s">
+        <v>666</v>
+      </c>
+      <c r="E121" t="s">
+        <v>667</v>
+      </c>
+      <c r="F121" t="s">
+        <v>668</v>
+      </c>
+      <c r="G121" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>358</v>
+      </c>
+      <c r="C122" t="s">
+        <v>359</v>
+      </c>
+      <c r="D122" t="s">
+        <v>360</v>
+      </c>
+      <c r="E122" t="s">
+        <v>361</v>
+      </c>
+      <c r="F122" t="s">
+        <v>362</v>
+      </c>
+      <c r="G122" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>388</v>
+      </c>
+      <c r="C123" t="s">
+        <v>389</v>
+      </c>
+      <c r="D123" t="s">
+        <v>390</v>
+      </c>
+      <c r="E123" t="s">
+        <v>391</v>
+      </c>
+      <c r="F123" t="s">
+        <v>392</v>
+      </c>
+      <c r="G123" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>340</v>
+      </c>
+      <c r="C125" t="s">
+        <v>341</v>
+      </c>
+      <c r="D125" t="s">
+        <v>342</v>
+      </c>
+      <c r="E125" t="s">
+        <v>343</v>
+      </c>
+      <c r="F125" t="s">
+        <v>344</v>
+      </c>
+      <c r="G125" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" t="s">
+        <v>65</v>
+      </c>
+      <c r="E126" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>197</v>
+      </c>
+      <c r="C127" t="s">
+        <v>198</v>
+      </c>
+      <c r="D127" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" t="s">
+        <v>141</v>
+      </c>
+      <c r="D128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>412</v>
+      </c>
+      <c r="C131" t="s">
+        <v>413</v>
+      </c>
+      <c r="D131" t="s">
+        <v>414</v>
+      </c>
+      <c r="E131" t="s">
+        <v>415</v>
+      </c>
+      <c r="F131" t="s">
+        <v>416</v>
+      </c>
+      <c r="G131" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" t="s">
+        <v>171</v>
+      </c>
+      <c r="D132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>534</v>
+      </c>
+      <c r="C133" t="s">
+        <v>535</v>
+      </c>
+      <c r="D133" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>328</v>
+      </c>
+      <c r="C134" t="s">
+        <v>329</v>
+      </c>
+      <c r="D134" t="s">
+        <v>330</v>
+      </c>
+      <c r="E134" t="s">
+        <v>331</v>
+      </c>
+      <c r="F134" t="s">
+        <v>332</v>
+      </c>
+      <c r="G134" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>310</v>
+      </c>
+      <c r="C135" t="s">
+        <v>311</v>
+      </c>
+      <c r="D135" t="s">
+        <v>312</v>
+      </c>
+      <c r="E135" t="s">
+        <v>313</v>
+      </c>
+      <c r="F135" t="s">
+        <v>314</v>
+      </c>
+      <c r="G135" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>540</v>
+      </c>
+      <c r="C136" t="s">
+        <v>541</v>
+      </c>
+      <c r="D136" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137" t="s">
+        <v>80</v>
+      </c>
+      <c r="D137" t="s">
+        <v>81</v>
+      </c>
+      <c r="E137" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>182</v>
+      </c>
+      <c r="C138" t="s">
+        <v>183</v>
+      </c>
+      <c r="D138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>230</v>
+      </c>
+      <c r="C139" t="s">
+        <v>231</v>
+      </c>
+      <c r="D139" t="s">
+        <v>232</v>
+      </c>
+      <c r="E139" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>421</v>
+      </c>
+      <c r="C140" t="s">
+        <v>422</v>
+      </c>
+      <c r="D140" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>555</v>
+      </c>
+      <c r="C141" t="s">
+        <v>556</v>
+      </c>
+      <c r="D141" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" t="s">
+        <v>31</v>
+      </c>
+      <c r="E142" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>618</v>
+      </c>
+      <c r="C143" t="s">
+        <v>619</v>
+      </c>
+      <c r="D143" t="s">
+        <v>620</v>
+      </c>
+      <c r="E143" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>582</v>
+      </c>
+      <c r="C144" t="s">
+        <v>583</v>
+      </c>
+      <c r="D144" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>119</v>
+      </c>
+      <c r="C145" t="s">
+        <v>120</v>
+      </c>
+      <c r="D145" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>116</v>
+      </c>
+      <c r="C146" t="s">
+        <v>117</v>
+      </c>
+      <c r="D146" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>234</v>
+      </c>
+      <c r="C147" t="s">
+        <v>235</v>
+      </c>
+      <c r="D147" t="s">
+        <v>236</v>
+      </c>
+      <c r="E147" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>39</v>
+      </c>
+      <c r="C148" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>122</v>
+      </c>
+      <c r="C149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D149" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>504</v>
+      </c>
+      <c r="C150" t="s">
+        <v>505</v>
+      </c>
+      <c r="D150" t="s">
+        <v>506</v>
+      </c>
+      <c r="E150" t="s">
+        <v>507</v>
+      </c>
+      <c r="F150" t="s">
+        <v>508</v>
+      </c>
+      <c r="G150" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>376</v>
+      </c>
+      <c r="C151" t="s">
+        <v>377</v>
+      </c>
+      <c r="D151" t="s">
+        <v>378</v>
+      </c>
+      <c r="E151" t="s">
+        <v>379</v>
+      </c>
+      <c r="F151" t="s">
+        <v>380</v>
+      </c>
+      <c r="G151" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>424</v>
+      </c>
+      <c r="C152" t="s">
+        <v>425</v>
+      </c>
+      <c r="D152" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>394</v>
+      </c>
+      <c r="C153" t="s">
+        <v>395</v>
+      </c>
+      <c r="D153" t="s">
+        <v>396</v>
+      </c>
+      <c r="E153" t="s">
+        <v>397</v>
+      </c>
+      <c r="F153" t="s">
+        <v>398</v>
+      </c>
+      <c r="G153" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>537</v>
+      </c>
+      <c r="C154" t="s">
+        <v>538</v>
+      </c>
+      <c r="D154" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>164</v>
+      </c>
+      <c r="C155" t="s">
+        <v>165</v>
+      </c>
+      <c r="D155" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>71</v>
+      </c>
+      <c r="C156" t="s">
+        <v>72</v>
+      </c>
+      <c r="D156" t="s">
+        <v>73</v>
+      </c>
+      <c r="E156" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>45</v>
+      </c>
+      <c r="C157" t="s">
+        <v>46</v>
+      </c>
+      <c r="D157" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>638</v>
+      </c>
+      <c r="C158" t="s">
+        <v>639</v>
+      </c>
+      <c r="D158" t="s">
+        <v>640</v>
+      </c>
+      <c r="E158" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>658</v>
+      </c>
+      <c r="C159" t="s">
+        <v>659</v>
+      </c>
+      <c r="D159" t="s">
+        <v>660</v>
+      </c>
+      <c r="E159" t="s">
+        <v>661</v>
+      </c>
+      <c r="F159" t="s">
+        <v>662</v>
+      </c>
+      <c r="G159" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>510</v>
+      </c>
+      <c r="C160" t="s">
+        <v>511</v>
+      </c>
+      <c r="D160" t="s">
+        <v>512</v>
+      </c>
+      <c r="E160" t="s">
+        <v>513</v>
+      </c>
+      <c r="F160" t="s">
+        <v>514</v>
+      </c>
+      <c r="G160" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>454</v>
+      </c>
+      <c r="C161" t="s">
+        <v>455</v>
+      </c>
+      <c r="D161" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>630</v>
+      </c>
+      <c r="C162" t="s">
+        <v>631</v>
+      </c>
+      <c r="D162" t="s">
+        <v>632</v>
+      </c>
+      <c r="E162" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>406</v>
+      </c>
+      <c r="C163" t="s">
+        <v>407</v>
+      </c>
+      <c r="D163" t="s">
+        <v>408</v>
+      </c>
+      <c r="E163" t="s">
+        <v>409</v>
+      </c>
+      <c r="F163" t="s">
+        <v>410</v>
+      </c>
+      <c r="G163" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>591</v>
+      </c>
+      <c r="C164" t="s">
+        <v>592</v>
+      </c>
+      <c r="D164" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>246</v>
+      </c>
+      <c r="C165" t="s">
+        <v>247</v>
+      </c>
+      <c r="D165" t="s">
+        <v>248</v>
+      </c>
+      <c r="E165" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>400</v>
+      </c>
+      <c r="C166" t="s">
+        <v>401</v>
+      </c>
+      <c r="D166" t="s">
+        <v>402</v>
+      </c>
+      <c r="E166" t="s">
+        <v>403</v>
+      </c>
+      <c r="F166" t="s">
+        <v>404</v>
+      </c>
+      <c r="G166" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>439</v>
+      </c>
+      <c r="C168" t="s">
+        <v>440</v>
+      </c>
+      <c r="D168" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>286</v>
+      </c>
+      <c r="C169" t="s">
+        <v>287</v>
+      </c>
+      <c r="D169" t="s">
+        <v>288</v>
+      </c>
+      <c r="E169" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>516</v>
+      </c>
+      <c r="C170" t="s">
+        <v>517</v>
+      </c>
+      <c r="D170" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>460</v>
+      </c>
+      <c r="C171" t="s">
+        <v>461</v>
+      </c>
+      <c r="D171" t="s">
+        <v>462</v>
+      </c>
+      <c r="E171" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>167</v>
+      </c>
+      <c r="C172" t="s">
+        <v>168</v>
+      </c>
+      <c r="D172" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>570</v>
+      </c>
+      <c r="C173" t="s">
+        <v>571</v>
+      </c>
+      <c r="D173" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>364</v>
+      </c>
+      <c r="C174" t="s">
+        <v>365</v>
+      </c>
+      <c r="D174" t="s">
+        <v>366</v>
+      </c>
+      <c r="E174" t="s">
+        <v>367</v>
+      </c>
+      <c r="F174" t="s">
+        <v>368</v>
+      </c>
+      <c r="G174" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>222</v>
+      </c>
+      <c r="C175" t="s">
+        <v>223</v>
+      </c>
+      <c r="D175" t="s">
+        <v>224</v>
+      </c>
+      <c r="E175" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>573</v>
+      </c>
+      <c r="C176" t="s">
+        <v>574</v>
+      </c>
+      <c r="D176" t="s">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G176">
+    <sortCondition ref="B2:B176"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>